--- a/Suspension/solutions/Teste do coxim.xlsx
+++ b/Suspension/solutions/Teste do coxim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bruno\GitHub\MudRunner\Suspension\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA3F4A-D3DC-4689-819D-82A148760AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0601ACE-8E1F-4E9E-9670-186E71885ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5370" windowWidth="28800" windowHeight="10230" xr2:uid="{F35DD4D6-7B22-43A5-AF4D-6D307C0A5AB6}"/>
+    <workbookView xWindow="16785" yWindow="5445" windowWidth="28800" windowHeight="10230" xr2:uid="{F35DD4D6-7B22-43A5-AF4D-6D307C0A5AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -114,12 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C944B9-CC3D-42A3-AF09-F2A388F6FBB7}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,9 +447,10 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -493,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -517,8 +519,9 @@
       <c r="H3" s="1">
         <v>139025.88347294167</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -541,8 +544,9 @@
       <c r="H4" s="1">
         <v>257471.1798687875</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -559,8 +563,9 @@
       <c r="H5" s="1">
         <v>439054.62590723345</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -579,8 +584,9 @@
       <c r="H6" s="1">
         <v>702954.42224359734</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -599,8 +605,9 @@
       <c r="H7" s="1">
         <v>1070858.4230195049</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -616,8 +623,9 @@
       <c r="H8" s="1">
         <v>1566946.5006816178</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -637,8 +645,9 @@
       <c r="H9" s="1">
         <v>2217870.9264588342</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -658,8 +667,9 @@
       <c r="H10" s="1">
         <v>3052734.7961094179</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -679,8 +689,9 @@
       <c r="H11" s="1">
         <v>4103068.533397858</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>75</v>
       </c>
@@ -690,8 +701,9 @@
       <c r="H12" s="1">
         <v>5402804.5065315124</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>80</v>
       </c>
@@ -701,11 +713,15 @@
       <c r="H13" s="1">
         <v>6988249.7954728277</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>139000</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="F14">
         <v>85</v>
       </c>
@@ -715,11 +731,15 @@
       <c r="H14" s="1">
         <v>8898057.1506382748</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>257000</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="F15">
         <v>90</v>
       </c>
@@ -729,11 +749,15 @@
       <c r="H15" s="1">
         <v>11173194.185994271</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>439000</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="F16">
         <v>95</v>
       </c>
@@ -743,11 +767,15 @@
       <c r="H16" s="1">
         <v>13856910.851958053</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>703000</v>
       </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="F17">
         <v>100</v>
       </c>
@@ -757,135 +785,229 @@
       <c r="H17" s="1">
         <v>16994705.235802591</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>1070000</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1110000</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1570000</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>2050000</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>2220000</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3050000</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>3490000</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>4100000</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>5400000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>5590000</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>6990000</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>8500000</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>8900000</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>11200000</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>12400000</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>13900000</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>17000000</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>17500000</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>24100000</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>32300000</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>42400000</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>54800000</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>69500000</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>87100000</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>108000000</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>132000000</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
